--- a/DRM_Output/1_Summary.xlsx
+++ b/DRM_Output/1_Summary.xlsx
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>2025-11-29</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-11-27</t>
+          <t>2025-11-28</t>
         </is>
       </c>
     </row>
@@ -500,7 +500,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4081.30</t>
+          <t>4069.60</t>
         </is>
       </c>
     </row>
@@ -559,7 +559,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3537.53</t>
+          <t>3538.60</t>
         </is>
       </c>
     </row>
@@ -571,7 +571,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>34.63</t>
+          <t>34.25</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>16.35</t>
+          <t>16.14</t>
         </is>
       </c>
     </row>
@@ -595,7 +595,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.016125</t>
+          <t>0.016109</t>
         </is>
       </c>
     </row>
@@ -607,7 +607,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1472.02</t>
+          <t>435.49</t>
         </is>
       </c>
     </row>
@@ -643,7 +643,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0.000623</t>
+          <t>0.000616</t>
         </is>
       </c>
     </row>
@@ -655,7 +655,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>-1.1252</t>
+          <t>-1.1248</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>11.5795</t>
+          <t>11.6040</t>
         </is>
       </c>
     </row>

--- a/DRM_Output/1_Summary.xlsx
+++ b/DRM_Output/1_Summary.xlsx
@@ -595,7 +595,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.016109</t>
+          <t>0.015999</t>
         </is>
       </c>
     </row>
@@ -607,7 +607,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>435.49</t>
+          <t>25.40</t>
         </is>
       </c>
     </row>
@@ -619,7 +619,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>VERY HIGH</t>
+          <t>HIGH</t>
         </is>
       </c>
     </row>
